--- a/Netzplan.xlsx
+++ b/Netzplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahg\OneDrive\Dokumente\GitHub\Musik\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CAAD66DF-372B-48E2-A85A-E3C956CE6C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0FD735-5B74-4031-AE58-74426E0E779C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8760C85B-AFD2-43C9-BC75-A64DD111A94A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>FP</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Planung</t>
   </si>
   <si>
-    <t>unterpunkte</t>
-  </si>
-  <si>
-    <t>Punkte</t>
-  </si>
-  <si>
     <t>Feature überlegung</t>
   </si>
   <si>
@@ -82,7 +76,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,13 +106,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,12 +129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E7E7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF4472C4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
@@ -223,9 +206,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1089,7 +1069,7 @@
   <dimension ref="A1:R41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T37" sqref="T37:T38"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1106,15 +1086,11 @@
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="48" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1127,10 +1103,6 @@
       <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="4" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
@@ -1146,7 +1118,7 @@
     <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:14" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="1">
@@ -1180,7 +1152,7 @@
         <v>1.5</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="1">
@@ -1262,14 +1234,14 @@
     <row r="28" spans="6:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="6:18" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K29" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="1">
         <v>15</v>
       </c>
       <c r="P29" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
@@ -1319,7 +1291,7 @@
     <row r="38" spans="13:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="39" spans="13:15" ht="47.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M39" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
